--- a/doc/games_cahier_de_tests.xlsx
+++ b/doc/games_cahier_de_tests.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\jeuxtest\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\MonProjet3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E2713C-32AA-40A0-9033-25C2FADD955C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73F4EF3-B05F-4ACE-B39B-4E6475BDB0FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3135" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{6CC260F6-DCA9-4593-A00D-32BEF5E8A304}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests PlusMoins" sheetId="1" r:id="rId1"/>
+    <sheet name="TNR" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="78">
   <si>
     <t>Cas de test</t>
   </si>
@@ -234,6 +235,121 @@
     <t>Choix de jeu 1 = recherche Plus ou Moins
 Choix de mode 3 = Mode Duel.
 Tirage aléatoire d'une série de 4 chiffres</t>
+  </si>
+  <si>
+    <t>Recherche Plus ou Moins</t>
+  </si>
+  <si>
+    <t>Mode défenseur</t>
+  </si>
+  <si>
+    <t>Mode Challenger</t>
+  </si>
+  <si>
+    <t>Mode Duel</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choix 1 et 3
+Affichage : 
+Vous avez choisi le mode Duel.
+</t>
+  </si>
+  <si>
+    <t>Entrez la combinaison de 4 chiffres (de 0 à 9) à trouver par l'ordnateur ?
+2222
+Entrez votre proposition de 4 chiffres (de 0 à 9) ?
+8045
+Votre proposition ...........: [8045] -&gt; Réponse ====
+Proposition de l'ordinateur .: [0000] -&gt; Réponse ++++
+Humain gagne en 1 coups.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choix 1 et 2
+Affichage : 
+Vous avez choisi le mode Défenseur.
+</t>
+  </si>
+  <si>
+    <t>Entrez la combinaison de 4 chiffres (de 0 à 9) à trouver par l'ordnateur ?
+2222
+Proposition de l'ordinateur .: [0000] -&gt; Réponse ++++
+Proposition de l'ordinateur .: [2222] -&gt; Réponse ====
+L'ordinateur gagne, il a trouvé en 2 coups votre combinaison secrete : [2222].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choix 1 et 1 
+Affichage : 
+Vous avez choisi le mode Challenger.
+</t>
+  </si>
+  <si>
+    <t>Entrez votre proposition de 4 chiffres (de 0 à 9) ?
+3125
+Votre proposition ...........: [3125] -&gt; Réponse ====
+Gagné en 1 coups. La solution est : [3125].</t>
+  </si>
+  <si>
+    <t>Vous avez choisi le mode Challenger.
+Entrez votre proposition de 4 chiffres (de 0 à 9) ?
+1111
+Votre proposition ...........: [1111] -&gt; Réponse +-++
+Entrez votre proposition de 4 chiffres (de 0 à 9) ?
+1111
+Votre proposition ...........: [1111] -&gt; Réponse +-++
+Perdu, nombre de tentatives (2) atteint. La solution est : [6055].</t>
+  </si>
+  <si>
+    <t>victoire humain</t>
+  </si>
+  <si>
+    <t>victoir ordinateur</t>
+  </si>
+  <si>
+    <t>defaite humain</t>
+  </si>
+  <si>
+    <t>Entrez la combinaison de 4 chiffres (de 0 à 9) à trouver par l'ordnateur ?
+9999
+Proposition de l'ordinateur .: [0000] -&gt; Réponse ++++
+Proposition de l'ordinateur .: [2222] -&gt; Réponse ++++
+Proposition de l'ordinateur .: [4444] -&gt; Réponse ++++
+Proposition de l'ordinateur .: [6666] -&gt; Réponse ++++
+Proposition de l'ordinateur .: [8888] -&gt; Réponse ++++
+Vous gagnez, l'ordinateur n'a pas trouvé en 5 coups votre combinaison secrete : [9999].</t>
+  </si>
+  <si>
+    <t>egalite</t>
+  </si>
+  <si>
+    <t>Vous avez choisi le mode Duel.
+Entrez la combinaison de 4 chiffres (de 0 à 9) à trouver par l'ordnateur ?
+2222
+Entrez votre proposition de 4 chiffres (de 0 à 9) ?
+1111
+Votre proposition ...........: [1111] -&gt; Réponse =+++
+Proposition de l'ordinateur .: [0000] -&gt; Réponse ++++
+Entrez votre proposition de 4 chiffres (de 0 à 9) ?
+1111
+Votre proposition ...........: [1111] -&gt; Réponse =+++
+Proposition de l'ordinateur .: [2222] -&gt; Réponse ====
+Ordinateur gagne en 2 coups. La solution à trouver était : [1654].</t>
+  </si>
+  <si>
+    <t>Vous avez choisi le mode Duel.
+Entrez la combinaison de 4 chiffres (de 0 à 9) à trouver par l'ordnateur ?
+2222
+Entrez votre proposition de 4 chiffres (de 0 à 9) ?
+3155
+Votre proposition ...........: [3155] -&gt; Réponse ===-
+Proposition de l'ordinateur .: [0000] -&gt; Réponse ++++
+Entrez votre proposition de 4 chiffres (de 0 à 9) ?
+3154
+Votre proposition ...........: [3154] -&gt; Réponse ====
+Proposition de l'ordinateur .: [2222] -&gt; Réponse ====
+Egalité en 2 coups.</t>
   </si>
 </sst>
 </file>
@@ -616,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F91DA39-00F4-41D9-B321-C7065DBA4D1A}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1001,4 +1117,194 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A21CDB-E678-4E3F-832E-E80D5BF20F82}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="4"/>
+    <col min="5" max="5" width="68.42578125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>